--- a/wiki_output.xlsx
+++ b/wiki_output.xlsx
@@ -15,96 +15,1959 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>超级大坏蛋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E8%B6%85%E7%BA%A7%E5%A4%A7%E5%9D%8F%E8%9B%8B</t>
-  </si>
-  <si>
-    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%BA%A5%E5%85%8B%E9%82%81%EF%BC%9A%E8%B6%85%E8%83%BD%E5%A3%9E%E8%9B%8B/daily/2000110100/2017112000</t>
-  </si>
-  <si>
-    <t>2010-11-09</t>
-  </si>
-  <si>
-    <t>2010年美国动画电影,美国电影作品,美国喜剧奇幻片,美国喜剧科幻片,美国喜剧犯罪片,美国家庭片,2010年代喜剧片,2010年代奇幻片,2010年代科幻片,2010年代犯罪片,英语电影,IMAX电影,超级英雄电影,动画喜剧片,动画奇幻片,科幻动画电影,派拉蒙影业电影,梦工厂动画公司动画电影,梦工厂电影,2010年电脑动画电影,2010年3D电影,美国3D电影,人与外星生物接触题材电影,外星超级反派,外星超级英雄,</t>
-  </si>
-  <si>
-    <t>时光匣子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E6%97%B6%E5%85%89%E5%8C%A3%E5%AD%90</t>
-  </si>
-  <si>
-    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%99%82%E9%96%93%E5%9B%8A/daily/2000110100/2017112000</t>
-  </si>
-  <si>
-    <t>2007-09-19</t>
-  </si>
-  <si>
-    <t>时间囊,</t>
-  </si>
-  <si>
-    <t>2015年中国女子足球协会杯比赛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/2015%E5%B9%B4%E4%B8%AD%E5%9B%BD%E5%A5%B3%E5%AD%90%E8%B6%B3%E7%90%83%E5%8D%8F%E4%BC%9A%E6%9D%AF%E6%AF%94%E8%B5%9B</t>
-  </si>
-  <si>
-    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/2015%E5%B9%B4%E4%B8%AD%E5%9B%BD%E5%A5%B3%E5%AD%90%E8%B6%B3%E7%90%83%E5%8D%8F%E4%BC%9A%E6%9D%AF%E6%AF%94%E8%B5%9B/daily/2000110100/2017112000</t>
-  </si>
-  <si>
-    <t>2015-02-08</t>
-  </si>
-  <si>
-    <t>女子足球赛事,</t>
-  </si>
-  <si>
-    <t>美竹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E7%AB%B9</t>
-  </si>
-  <si>
-    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%BE%8E%E7%AB%B9/daily/2000110100/2017112000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="651">
+  <si>
+    <t>叶史瓦大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%B6%E5%8F%B2%E7%93%A6%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%8F%B6%E5%8F%B2%E7%93%A6%E5%A4%A7%E5%AD%A6/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2008-02-29</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%8F%B6%E5%8F%B2%E7%93%A6%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>纽约市大学,叶史瓦大学,1886年创建的教育机构,美国犹太教,</t>
+  </si>
+  <si>
+    <t>阿尔韦托·藤森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E5%B0%94%E9%9F%A6%E6%89%98%C2%B7%E8%97%A4%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%98%BF%E5%B0%94%E9%9F%A6%E6%89%98%C2%B7%E8%97%A4%E6%A3%AE/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2004-12-07</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%98%BF%E5%B0%94%E9%9F%A6%E6%89%98%C2%B7%E8%97%A4%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>Webarchive模板其他存档站点,1938年出生,在世人物,秘鲁总统,考迪罗,曾入狱的领袖,秘鲁工程师,秘鲁罪犯,日本裔秘鲁人,利马人,威斯康辛大学密尔瓦基分校校友,贿赂,国民新党党员,</t>
+  </si>
+  <si>
+    <t>吴叔告</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%90%B4%E5%8F%94%E5%91%8A</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%90%B4%E5%8F%94%E5%91%8A/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2008-09-12</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%90%B4%E5%8F%94%E5%91%8A</t>
+  </si>
+  <si>
+    <t>1193年出生,1266年逝世,福建状元,宋朝状元,端平二年乙未科进士,莆田人,吴姓,</t>
+  </si>
+  <si>
+    <t>洑口乡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B4%91%E5%8F%A3%E4%B9%A1</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%B4%91%E5%8F%A3%E4%B9%A1/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-08-22</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%B4%91%E5%8F%A3%E4%B9%A1</t>
+  </si>
+  <si>
+    <t>永泰县乡镇,</t>
+  </si>
+  <si>
+    <t>阿勒泰花蟹蛛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E5%8B%92%E6%B3%B0%E8%8A%B1%E8%9F%B9%E8%9B%9B</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%98%BF%E5%8B%92%E6%B3%B0%E8%8A%B1%E8%9F%B9%E8%9B%9B/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-10-11</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%98%BF%E5%8B%92%E6%B3%B0%E8%8A%B1%E8%9F%B9%E8%9B%9B</t>
+  </si>
+  <si>
+    <t>花蟹蛛属,</t>
+  </si>
+  <si>
+    <t>有种你爱我</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%89%E7%A7%8D%E4%BD%A0%E7%88%B1%E6%88%91</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%9C%89%E7%A7%8D%E4%BD%A0%E7%88%B1%E6%88%91/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2015-01-11</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%9C%89%E7%A7%8D%E4%BD%A0%E7%88%B1%E6%88%91</t>
+  </si>
+  <si>
+    <t>2015年电影,中国浪漫喜剧片,华语电影,2010年代中国电影作品,2010年代浪漫喜剧片,</t>
+  </si>
+  <si>
+    <t>于梅玲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%8E%E6%A2%85%E7%8E%B2</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E4%BA%8E%E6%A2%85%E7%8E%B2/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2011-02-23</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E4%BA%8E%E6%A2%85%E7%8E%B2</t>
+  </si>
+  <si>
+    <t>1967年出生,在世人物,中国围棋棋手,中国棋院围棋棋手,洛阳人,</t>
+  </si>
+  <si>
+    <t>北周灭北齐之战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%97%E5%91%A8%E7%81%AD%E5%8C%97%E9%BD%90%E4%B9%8B%E6%88%98</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%8C%97%E5%91%A8%E7%81%AD%E5%8C%97%E9%BD%90%E4%B9%8B%E6%88%98/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2014-01-14</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%8C%97%E5%91%A8%E7%81%AD%E5%8C%97%E9%BD%90%E4%B9%8B%E6%88%98</t>
+  </si>
+  <si>
+    <t>北周战役,北齐战役,570年代中国战役,</t>
+  </si>
+  <si>
+    <t>印洲塘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%B0%E6%B4%B2%E5%A1%98</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%8D%B0%E6%B4%B2%E5%A1%98/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-09-30</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%8D%B0%E6%B4%B2%E5%A1%98</t>
+  </si>
+  <si>
+    <t>香港港湾,印洲塘,</t>
+  </si>
+  <si>
+    <t>黄柏语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E6%9F%8F%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%BB%83%E6%9F%8F%E8%AA%9E/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2014-08-28</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%BB%83%E6%9F%8F%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>1992年出生,在世人物,模范棒棒堂,快乐男声参赛选手,华研国际音乐艺人,</t>
+  </si>
+  <si>
+    <t>明华园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%8E%E5%8D%8E%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%98%8E%E8%8F%AF%E5%9C%92/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-12-14</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%98%8E%E8%8F%AF%E5%9C%92</t>
+  </si>
+  <si>
+    <t>台湾歌仔戏剧团,台湾艺术组织,1929年建立,潮州镇,</t>
+  </si>
+  <si>
+    <t>现代亚洲研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%B0%E4%BB%A3%E4%BA%9A%E6%B4%B2%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%8F%BE%E4%BB%A3%E4%BA%9E%E6%B4%B2%E7%A0%94%E7%A9%B6/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2014-04-05</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%8F%BE%E4%BB%A3%E4%BA%9E%E6%B4%B2%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>亚洲研究期刊,英语期刊,</t>
+  </si>
+  <si>
+    <t>轨迹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BD%A8%E8%BF%B9</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E8%BD%A8%E8%BF%B9/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2008-10-25</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E8%BD%A8%E8%BF%B9</t>
+  </si>
+  <si>
+    <t>初等几何,</t>
+  </si>
+  <si>
+    <t>洞宫山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B4%9E%E5%AE%AB%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%B4%9E%E5%AE%AB%E5%B1%B1/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-07-25</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%B4%9E%E5%AE%AB%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>浙江山峰,</t>
+  </si>
+  <si>
+    <t>今川义元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%8A%E5%B7%9D%E4%B9%89%E5%85%83</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E4%BB%8A%E5%B7%9D%E7%BE%A9%E5%85%83/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2005-06-21</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E4%BB%8A%E5%B7%9D%E7%BE%A9%E5%85%83</t>
+  </si>
+  <si>
+    <t>1519年出生,1560年逝世,战国大名,今川氏,日本战争身亡者,骏河国出身人物,临济宗僧人,守护大名,室町和安土桃山时代僧人,还俗人物,</t>
+  </si>
+  <si>
+    <t>出川哲朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%87%BA%E5%B7%9D%E5%93%B2%E6%9C%97</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%87%BA%E5%B7%9D%E5%93%B2%E6%9C%97/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-05-27</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%87%BA%E5%B7%9D%E5%93%B2%E6%9C%97</t>
+  </si>
+  <si>
+    <t>1964年出生,在世人物,日本男性搞笑艺人,日本电视演员,神奈川县出身人物,</t>
+  </si>
+  <si>
+    <t>小叶亚麻荠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E5%8F%B6%E4%BA%9A%E9%BA%BB%E8%8D%A0</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%B0%8F%E5%8F%B6%E4%BA%9A%E9%BA%BB%E8%8D%A0/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2013-01-16</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%B0%8F%E5%8F%B6%E4%BA%9A%E9%BA%BB%E8%8D%A0</t>
+  </si>
+  <si>
+    <t>亚麻荠属,</t>
+  </si>
+  <si>
+    <t>阿拉奥特拉-曼古罗区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E6%8B%89%E5%A5%A5%E7%89%B9%E6%8B%89-%E6%9B%BC%E5%8F%A4%E7%BD%97%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%98%BF%E6%8B%89%E5%A5%A7%E7%89%B9%E6%8B%89-%E6%9B%BC%E5%8F%A4%E7%BE%85%E5%8D%80/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2011-11-09</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%98%BF%E6%8B%89%E5%A5%A7%E7%89%B9%E6%8B%89-%E6%9B%BC%E5%8F%A4%E7%BE%85%E5%8D%80</t>
+  </si>
+  <si>
+    <t>马达加斯加行政区划,</t>
+  </si>
+  <si>
+    <t>江西科技师范大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%9F%E8%A5%BF%E7%A7%91%E6%8A%80%E5%B8%88%E8%8C%83%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%B1%9F%E8%A5%BF%E7%A7%91%E6%8A%80%E5%B8%88%E8%8C%83%E5%A4%A7%E5%AD%A6/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%B1%9F%E8%A5%BF%E7%A7%91%E6%8A%80%E5%B8%88%E8%8C%83%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>江西高等院校,1977年创建的教育机构,中国师范院校,</t>
+  </si>
+  <si>
+    <t>大尾叶鲹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E5%B0%BE%E5%8F%B6%E9%B2%B9</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%A4%A7%E5%B0%BE%E5%8F%B6%E9%B2%B9/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-04-17</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%A4%A7%E5%B0%BE%E5%8F%B6%E9%B2%B9</t>
+  </si>
+  <si>
+    <t>鲹属,</t>
+  </si>
+  <si>
+    <t>南昆杜鹃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%97%E6%98%86%E6%9D%9C%E9%B9%83</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%8D%97%E6%98%86%E6%9D%9C%E9%B9%83/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2013-01-18</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%8D%97%E6%98%86%E6%9D%9C%E9%B9%83</t>
+  </si>
+  <si>
+    <t>杜鹃属,</t>
+  </si>
+  <si>
+    <t>支河乡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%94%AF%E6%B2%B3%E4%B9%A1</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%94%AF%E6%B2%B3%E4%B9%A1/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-04-13</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%94%AF%E6%B2%B3%E4%B9%A1</t>
+  </si>
+  <si>
+    <t>宿州市乡镇,埇桥区行政区划,</t>
+  </si>
+  <si>
+    <t>济州国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B5%8E%E5%B7%9E%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%BF%9F%E5%B7%9E%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-06-28</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%BF%9F%E5%B7%9E%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>韩国机场,济州特别自治道,</t>
+  </si>
+  <si>
+    <t>奥斯特沃伦海崖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%A5%E6%96%AF%E7%89%B9%E6%B2%83%E4%BC%A6%E6%B5%B7%E5%B4%96</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%A5%A7%E6%96%AF%E7%89%B9%E6%B2%83%E5%80%AB%E6%B5%B7%E5%B4%96/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2014-02-02</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%A5%A7%E6%96%AF%E7%89%B9%E6%B2%83%E5%80%AB%E6%B5%B7%E5%B4%96</t>
+  </si>
+  <si>
+    <t>南极洲悬崖,</t>
+  </si>
+  <si>
+    <t>马肾果</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E8%82%BE%E6%9E%9C</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%A9%AC%E8%82%BE%E6%9E%9C/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%A9%AC%E8%82%BE%E6%9E%9C</t>
+  </si>
+  <si>
+    <t>米仔兰属,</t>
+  </si>
+  <si>
+    <t>澳大利亚国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E7%AB%8B%E5%9C%96%E6%9B%B8%E9%A4%A8/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2011-04-06</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%BE%B3%E6%B4%B2%E5%9C%8B%E7%AB%8B%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国家图书馆,堪培拉建筑物,1968年完工建筑物,澳洲图书馆,澳大利亚联邦政府机构,</t>
+  </si>
+  <si>
+    <t>白眶蛇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BD%E7%9C%B6%E8%9B%87</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%99%BD%E7%9C%B6%E8%9B%87/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-04-13</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%99%BD%E7%9C%B6%E8%9B%87</t>
+  </si>
+  <si>
+    <t>白眶蛇属,</t>
+  </si>
+  <si>
+    <t>里尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%87%8C%E5%B0%94/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-11-30</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%87%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>法国各省首府,诺尔省市镇,里尔,</t>
+  </si>
+  <si>
+    <t>抝九节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8A%9D%E4%B9%9D%E8%8A%82</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%8B%97%E4%B9%9D%E8%8A%82/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-01-14</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%8B%97%E4%B9%9D%E8%8A%82</t>
+  </si>
+  <si>
+    <t>中国传统节日,福州文化,</t>
+  </si>
+  <si>
+    <t>Internet Download Manager</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/Internet%20Download%20Manager</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/Internet_Download_Manager/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2008-10-04</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=Internet_Download_Manager</t>
+  </si>
+  <si>
+    <t>下载工具,共享软件,</t>
+  </si>
+  <si>
+    <t>雷氏刺躄鱼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%B7%E6%B0%8F%E5%88%BA%E8%BA%84%E9%B1%BC</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%9B%B7%E6%B0%8F%E5%88%BA%E8%BA%84%E9%AD%9A/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2014-02-15</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%9B%B7%E6%B0%8F%E5%88%BA%E8%BA%84%E9%AD%9A</t>
+  </si>
+  <si>
+    <t>刺躄鱼属,</t>
+  </si>
+  <si>
+    <t>新疆天山雪豹足球俱乐部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E7%96%86%E5%A4%A9%E5%B1%B1%E9%9B%AA%E8%B1%B9%E8%B6%B3%E7%90%83%E4%BF%B1%E4%B9%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%96%B0%E7%96%86%E5%A4%A9%E5%B1%B1%E9%9B%AA%E8%B1%B9%E8%B6%B3%E7%90%83%E4%BF%B1%E4%B9%90%E9%83%A8/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%96%B0%E7%96%86%E5%A4%A9%E5%B1%B1%E9%9B%AA%E8%B1%B9%E8%B6%B3%E7%90%83%E4%BF%B1%E4%B9%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>中国足球俱乐部,新疆足球,乌鲁木齐文化,湖北足球史,黄石文化,2011年建立的足球俱乐部,</t>
+  </si>
+  <si>
+    <t>黑碳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%91%E7%A2%B3</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%BB%91%E7%A2%B3/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-06-30</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%BB%91%E7%A2%B3</t>
+  </si>
+  <si>
+    <t>碳,火,环境科学,气候因子,</t>
+  </si>
+  <si>
+    <t>马开贤</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E5%BC%80%E8%B4%A4</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%A9%AC%E5%BC%80%E8%B4%A4/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2013-04-11</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%A9%AC%E5%BC%80%E8%B4%A4</t>
+  </si>
+  <si>
+    <t>1946年出生,在世人物,第十一届全国政协委员,</t>
+  </si>
+  <si>
+    <t>Android M</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/Android%20M</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/Android_Marshmallow/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2015-06-01</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=Android_Marshmallow</t>
+  </si>
+  <si>
+    <t>2015年软件,Android,</t>
+  </si>
+  <si>
+    <t>冒险少女</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%86%92%E9%99%A9%E5%B0%91%E5%A5%B3</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%86%92%E9%9A%AA%E5%B0%91%E5%A5%B3%E5%A8%9C%E6%B1%80%E4%BA%9E/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2005-09-10</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%86%92%E9%9A%AA%E5%B0%91%E5%A5%B3%E5%A8%9C%E6%B1%80%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>GAINAX,1990年日本电视动画,1991年日本剧场动画,NHK动画,公主主角题材作品,海洋冒险作品,儒勒·凡尔纳著作题材作品,无线电视外购动画,中视外购动画,民视外购动画,潜水舰题材作品,亚特兰提斯题材作品,蒸汽朋克动画,</t>
+  </si>
+  <si>
+    <t>清末四大奇案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B8%85%E6%9C%AB%E5%9B%9B%E5%A4%A7%E5%A5%87%E6%A1%88</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%B8%85%E6%9C%AB%E5%9B%9B%E5%A4%A7%E5%A5%87%E6%A1%88/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-04-04</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%B8%85%E6%9C%AB%E5%9B%9B%E5%A4%A7%E5%A5%87%E6%A1%88</t>
+  </si>
+  <si>
+    <t>清朝刑事案件,中国四大,</t>
+  </si>
+  <si>
+    <t>陆世仪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%86%E4%B8%96%E4%BB%AA</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%99%B8%E4%B8%96%E5%84%80/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-12-22</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%99%B8%E4%B8%96%E5%84%80</t>
+  </si>
+  <si>
+    <t>1611年出生,1672年逝世,明朝理学家,太仓人,陆姓,东庑先贤先儒,</t>
+  </si>
+  <si>
+    <t>弗里德里希·恩格斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%81%A9%E6%A0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%81%A9%E6%A0%BC%E6%96%AF/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2003-11-30</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%81%A9%E6%A0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>1820年出生,1895年逝世,卡尔·马克思,19世纪哲学家,德国哲学家,德国历史学家,德国企业家,德国经济学家,共产主义,马克思主义理论家,柏林洪堡大学校友,北莱因-西发里亚人,</t>
+  </si>
+  <si>
+    <t>SICP</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/SICP</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A8%8B%E5%BA%8F%E7%9A%84%E6%9E%84%E9%80%A0%E5%92%8C%E8%A7%A3%E9%87%8A/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-09-23</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A8%8B%E5%BA%8F%E7%9A%84%E6%9E%84%E9%80%A0%E5%92%8C%E8%A7%A3%E9%87%8A</t>
+  </si>
+  <si>
+    <t>电脑书籍,教科书,</t>
+  </si>
+  <si>
+    <t>伊斯兰共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>共和国,伊斯兰共和国,</t>
+  </si>
+  <si>
+    <t>马塞尔·迪普雷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E5%A1%9E%E5%B0%94%C2%B7%E8%BF%AA%E6%99%AE%E9%9B%B7</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%A9%AC%E5%A1%9E%E5%B0%94%C2%B7%E8%BF%AA%E6%99%AE%E9%9B%B7/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-12-13</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%A9%AC%E5%A1%9E%E5%B0%94%C2%B7%E8%BF%AA%E6%99%AE%E9%9B%B7</t>
+  </si>
+  <si>
+    <t>1886年出生,1971年逝世,法国作曲家,20世纪作曲家,</t>
+  </si>
+  <si>
+    <t>响堂山石窟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%8D%E5%A0%82%E5%B1%B1%E7%9F%B3%E7%AA%9F</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%93%8D%E5%A0%82%E5%B1%B1%E7%9F%B3%E7%AA%9F/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-07-09</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%93%8D%E5%A0%82%E5%B1%B1%E7%9F%B3%E7%AA%9F</t>
+  </si>
+  <si>
+    <t>河北全国重点文物保护单位,中国石窟寺,邯郸佛寺,邯郸文物保护单位,峰峰矿区,国家4A级旅游景区,</t>
+  </si>
+  <si>
+    <t>阿拔斯王朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E6%8B%94%E6%96%AF%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%98%BF%E6%8B%94%E6%96%AF%E7%8E%8B%E6%9C%9D/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2005-01-03</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%98%BF%E6%8B%94%E6%96%AF%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>已不存在的非洲君主国,已不存在的亚洲君主国,已不存在的中东国家,已不存在的帝国,750年建立的国家或政权,1258年终结的国家或政权,阿拔斯王朝,阿拉伯帝国,哈里发国,</t>
+  </si>
+  <si>
+    <t>姚镆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A7%9A%E9%95%86</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%A7%9A%E9%95%86/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-05-19</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%A7%9A%E9%95%86</t>
+  </si>
+  <si>
+    <t>1465年出生,1537年逝世,弘治六年癸丑科进士,明朝兵部尚书,慈溪人,姚姓,明朝太子三少,明朝两广总督,明朝工部侍郎,明朝贵州按察使,明朝延绥巡抚,明朝福建按察使司副使,明朝礼部员外郎,慈溪姚氏,</t>
+  </si>
+  <si>
+    <t>尼泊尔菊三七</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%BC%E6%B3%8A%E5%B0%94%E8%8F%8A%E4%B8%89%E4%B8%83</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%B0%BC%E6%B3%8A%E5%B0%94%E8%8F%8A%E4%B8%89%E4%B8%83/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-02-24</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%B0%BC%E6%B3%8A%E5%B0%94%E8%8F%8A%E4%B8%89%E4%B8%83</t>
+  </si>
+  <si>
+    <t>菊三七属,</t>
+  </si>
+  <si>
+    <t>斯库基尔河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%AF%E5%BA%93%E5%9F%BA%E5%B0%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%96%AF%E5%BA%93%E5%B0%94%E5%9F%BA%E5%B0%94%E6%B2%B3/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-12-07</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%96%AF%E5%BA%93%E5%B0%94%E5%9F%BA%E5%B0%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州河流,特拉华河支流,</t>
+  </si>
+  <si>
+    <t>超级机器人大战α</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B6%85%E7%BA%A7%E6%9C%BA%E5%99%A8%E4%BA%BA%E5%A4%A7%E6%88%98%CE%B1</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E8%B6%85%E7%B4%9A%E6%A9%9F%E5%99%A8%E4%BA%BA%E5%A4%A7%E6%88%B0%CE%B1/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2013-05-28</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E8%B6%85%E7%B4%9A%E6%A9%9F%E5%99%A8%E4%BA%BA%E5%A4%A7%E6%88%B0%CE%B1</t>
+  </si>
+  <si>
+    <t>超级机器人大战系列,PlayStation (游戏机)游戏,Dreamcast游戏,2000年电子游戏,</t>
+  </si>
+  <si>
+    <t>国家公务员局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%8A%A1%E5%91%98%E5%B1%80</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%8A%A1%E5%91%98%E5%B1%80/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2008-03-16</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%8A%A1%E5%91%98%E5%B1%80</t>
+  </si>
+  <si>
+    <t>副部级单位,中华人民共和国人力资源和社会保障部管理的国家局,国家公务员局,中华人民共和国公务员,中华人民共和国人事制度,</t>
+  </si>
+  <si>
+    <t>佛眼佛母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%9B%E7%9C%BC%E4%BD%9B%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E4%BD%9B%E7%9C%BC%E4%BD%9B%E6%AF%8D/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2016-04-25</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E4%BD%9B%E7%9C%BC%E4%BD%9B%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>佛教神祇,</t>
+  </si>
+  <si>
+    <t>艾尔伯图斯·麦格努斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%89%BE%E5%B0%94%E4%BC%AF%E5%9B%BE%E6%96%AF%C2%B7%E9%BA%A6%E6%A0%BC%E5%8A%AA%E6%96%AF</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E8%89%BE%E7%88%BE%E4%BC%AF%E5%9C%96%E6%96%AF%C2%B7%E9%BA%A5%E6%A0%BC%E5%8A%AA%E6%96%AF/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-03-09</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E8%89%BE%E7%88%BE%E4%BC%AF%E5%9C%96%E6%96%AF%C2%B7%E9%BA%A5%E6%A0%BC%E5%8A%AA%E6%96%AF</t>
+  </si>
+  <si>
+    <t>生年不详,1280年逝世,多明我会成员,经院哲学家,德国哲学家,德国神学家,德国经济学家,宏观经济学学派,巴伐利亚人,教会圣师,</t>
+  </si>
+  <si>
+    <t>古德命名法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A4%E5%BE%B7%E5%91%BD%E5%90%8D%E6%B3%95</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%8F%A4%E5%BE%B7%E5%91%BD%E5%90%8D%E6%B3%95/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2013-02-12</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%8F%A4%E5%BE%B7%E5%91%BD%E5%90%8D%E6%B3%95</t>
+  </si>
+  <si>
+    <t>天文学目录,</t>
+  </si>
+  <si>
+    <t>2010年新加坡羽毛球超级赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/2010%E5%B9%B4%E6%96%B0%E5%8A%A0%E5%9D%A1%E7%BE%BD%E6%AF%9B%E7%90%83%E8%B6%85%E7%BA%A7%E8%B5%9B</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/2010%E5%B9%B4%E6%96%B0%E5%8A%A0%E5%9D%A1%E7%BE%BD%E6%AF%9B%E7%90%83%E8%B6%85%E7%B4%9A%E8%B3%BD/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2013-05-15</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=2010%E5%B9%B4%E6%96%B0%E5%8A%A0%E5%9D%A1%E7%BE%BD%E6%AF%9B%E7%90%83%E8%B6%85%E7%B4%9A%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>2010年世界羽联超级系列赛,新加坡羽毛球公开赛,2010年新加坡体育,</t>
+  </si>
+  <si>
+    <t>钢铁是怎样炼成的</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%92%A2%E9%93%81%E6%98%AF%E6%80%8E%E6%A0%B7%E7%82%BC%E6%88%90%E7%9A%84</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%92%A2%E9%93%81%E6%98%AF%E6%80%8E%E6%A0%B7%E7%82%BC%E6%88%90%E7%9A%84/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-10-12</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%92%A2%E9%93%81%E6%98%AF%E6%80%8E%E6%A0%B7%E7%82%BC%E6%88%90%E7%9A%84</t>
+  </si>
+  <si>
+    <t>苏联小说,1932年长篇小说,</t>
+  </si>
+  <si>
+    <t>新安街道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E5%AE%89%E8%A1%97%E9%81%93</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%96%B0%E5%AE%89%E8%A1%97%E9%81%93/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-09-20</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%96%B0%E5%AE%89%E8%A1%97%E9%81%93</t>
+  </si>
+  <si>
+    <t>四字乡级行政区划-街道名消歧义,</t>
+  </si>
+  <si>
+    <t>太平洋巨卵鸟尾蛤</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B7%A8%E5%8D%B5%E9%B8%9F%E5%B0%BE%E8%9B%A4</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B7%A8%E5%8D%B5%E6%BB%91%E9%B8%9F%E8%9B%A4/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B7%A8%E5%8D%B5%E6%BB%91%E9%B8%9F%E8%9B%A4</t>
+  </si>
+  <si>
+    <t>滑鸟蛤属,</t>
+  </si>
+  <si>
+    <t>福集镇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A6%8F%E9%9B%86%E9%95%87</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%A6%8F%E9%9B%86%E9%95%87/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-03-21</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%A6%8F%E9%9B%86%E9%95%87</t>
+  </si>
+  <si>
+    <t>泸州市乡镇,泸县行政区划,</t>
+  </si>
+  <si>
+    <t>团圆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%A2%E5%9C%86</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%9C%98%E5%9C%93/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2010-02-13</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%9C%98%E5%9C%93</t>
+  </si>
+  <si>
+    <t>二字作品消歧义,</t>
+  </si>
+  <si>
+    <t>濮阳专区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BF%AE%E9%98%B3%E4%B8%93%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%BF%AE%E9%98%B3%E4%B8%93%E5%8C%BA/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2011-12-03</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%BF%AE%E9%98%B3%E4%B8%93%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>河南省已撤消的行政区,专区,濮阳历史,</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/S1</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/S1/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-08-13</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=S1</t>
+  </si>
+  <si>
+    <t>非中文名称消歧义,</t>
+  </si>
+  <si>
+    <t>特罗波亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%89%B9%E7%BD%97%E6%B3%A2%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%89%B9%E7%BE%85%E6%B3%A2%E4%BA%9E/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-11-05</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%89%B9%E7%BE%85%E6%B3%A2%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚城市,</t>
+  </si>
+  <si>
+    <t>基辅号航空母舰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%BA%E8%BE%85%E5%8F%B7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%9F%BA%E8%BC%94%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2010-07-12</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%9F%BA%E8%BC%94%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
+  </si>
+  <si>
+    <t>苏联航空母舰,1972年下水,中国船只博物馆,</t>
+  </si>
+  <si>
+    <t>赛萨尔·弗兰克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B5%9B%E8%90%A8%E5%B0%94%C2%B7%E5%BC%97%E5%85%B0%E5%85%8B</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%A1%9E%E6%89%8E%E5%B0%94%C2%B7%E5%BC%97%E5%85%B0%E5%85%8B/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-03-04</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%A1%9E%E6%89%8E%E5%B0%94%C2%B7%E5%BC%97%E5%85%B0%E5%85%8B</t>
+  </si>
+  <si>
+    <t>1822年出生,1890年逝世,法国作曲家,比利时作曲家,浪漫主义作曲家,法国荣誉军团勋章持有人,德国裔法国人,比利时天主教徒,法国车祸身亡者,</t>
+  </si>
+  <si>
+    <t>埃尔文·布鲁克斯·怀特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%83%E5%B0%94%E6%96%87%C2%B7%E5%B8%83%E9%B2%81%E5%85%8B%E6%96%AF%C2%B7%E6%80%80%E7%89%B9</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/E%C2%B7B%C2%B7%E6%87%B7%E7%89%B9/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2014-07-20</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=E%C2%B7B%C2%B7%E6%87%B7%E7%89%B9</t>
+  </si>
+  <si>
+    <t>美国作家,康乃尔大学校友,</t>
+  </si>
+  <si>
+    <t>章高元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AB%A0%E9%AB%98%E5%85%83</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%AB%A0%E9%AB%98%E5%85%83/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-08-10</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%AB%A0%E9%AB%98%E5%85%83</t>
+  </si>
+  <si>
+    <t>1843年出生,1912年逝世,台湾镇总兵,合肥人,淮军将领,汉字巴图鲁勇号,</t>
+  </si>
+  <si>
+    <t>危地马拉剑尾鱼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89%E5%89%91%E5%B0%BE%E9%B1%BC</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89%E5%8A%8D%E5%B0%BE%E9%AD%9A/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-11-04</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89%E5%8A%8D%E5%B0%BE%E9%AD%9A</t>
+  </si>
+  <si>
+    <t>观赏鱼,剑尾鱼属,</t>
+  </si>
+  <si>
+    <t>雍熙北伐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%8D%E7%86%99%E5%8C%97%E4%BC%90</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%9B%8D%E7%86%99%E5%8C%97%E4%BC%90/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-11-29</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%9B%8D%E7%86%99%E5%8C%97%E4%BC%90</t>
+  </si>
+  <si>
+    <t>宋朝历史事件,宋辽战争战役,北京历次战争与战役,天津历次战争与战役,河北历次战争与战役,山西历次战争与战役,980年代中国战役,986年,</t>
+  </si>
+  <si>
+    <t>额斑刺蝶鱼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A2%9D%E6%96%91%E5%88%BA%E8%9D%B6%E9%B1%BC</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%A1%8D%E6%96%91%E5%88%BA%E8%9D%B6%E9%AD%9A/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-08-12</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%A1%8D%E6%96%91%E5%88%BA%E8%9D%B6%E9%AD%9A</t>
+  </si>
+  <si>
+    <t>观赏鱼,有毒鱼类,刺蝶鱼属,卡尔·林奈命名的生物分类,</t>
+  </si>
+  <si>
+    <t>克鲁克湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%8B%E9%B2%81%E5%85%8B%E6%B9%96</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%8F%AF%E9%B2%81%E5%85%8B%E6%B9%96/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2013-05-02</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%8F%AF%E9%B2%81%E5%85%8B%E6%B9%96</t>
+  </si>
+  <si>
+    <t>青海湖泊,德令哈市,</t>
+  </si>
+  <si>
+    <t>中南大学湘雅医学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%97%E5%A4%A7%E5%AD%A6%E6%B9%98%E9%9B%85%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%B9%98%E9%9B%85%E5%8C%BB%E5%AD%A6%E9%99%A2/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-04-26</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%B9%98%E9%9B%85%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>中南大学,湘雅医学院,长沙医学院校,1906年创建的教育机构,耶鲁大学,</t>
+  </si>
+  <si>
+    <t>德音堂琴谱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BE%B7%E9%9F%B3%E5%A0%82%E7%90%B4%E8%B0%B1</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%BE%B7%E9%9F%B3%E5%A0%82%E7%90%B4%E8%B0%B1/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2016-09-01</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%BE%B7%E9%9F%B3%E5%A0%82%E7%90%B4%E8%B0%B1</t>
+  </si>
+  <si>
+    <t>清朝古琴谱,</t>
+  </si>
+  <si>
+    <t>纤连蛋白</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BA%A4%E8%BF%9E%E8%9B%8B%E7%99%BD</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%BA%A4%E8%BF%9E%E8%9B%8B%E7%99%BD/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2014-03-18</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%BA%A4%E8%BF%9E%E8%9B%8B%E7%99%BD</t>
+  </si>
+  <si>
+    <t>人类蛋白质,整合素,</t>
+  </si>
+  <si>
+    <t>楚顷襄王</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A5%9A%E9%A1%B7%E8%A5%84%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%A5%9A%E9%A0%83%E8%A5%84%E7%8E%8B/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-07-25</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%A5%9A%E9%A0%83%E8%A5%84%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>楚国君主,</t>
+  </si>
+  <si>
+    <t>布氏桉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%83%E6%B0%8F%E6%A1%89</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%B8%83%E6%B0%8F%E6%A1%89/daily/2000110100/2017112000</t>
   </si>
   <si>
     <t>2013-01-19</t>
   </si>
   <si>
-    <t>刚竹属,</t>
-  </si>
-  <si>
-    <t>马炳泰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E7%82%B3%E6%B3%B0</t>
-  </si>
-  <si>
-    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%A9%AC%E7%82%B3%E6%B3%B0/daily/2000110100/2017112000</t>
-  </si>
-  <si>
-    <t>2011-01-02</t>
-  </si>
-  <si>
-    <t>1950年出生,在世人物,中国人民解放军中将,中国人民武装警察部队少将,第十届全国人大代表,秦皇岛人,马姓,</t>
-  </si>
-  <si>
-    <t>俞佐庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%9E%E4%BD%90%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E4%BF%9E%E4%BD%90%E5%BA%AD/daily/2000110100/2017112000</t>
-  </si>
-  <si>
-    <t>2007-02-11</t>
-  </si>
-  <si>
-    <t>1889年出生,1951年逝世,第1届中华民国国民大会代表,中国企业家,中国商人,中华民国银行家,宁波人,镇海县人,宁波商帮,</t>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%B8%83%E6%B0%8F%E6%A1%89</t>
+  </si>
+  <si>
+    <t>桉属,</t>
+  </si>
+  <si>
+    <t>得荣县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BE%97%E8%8D%A3%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%BE%97%E8%8D%A3%E5%8E%BF/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%BE%97%E8%8D%A3%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>得荣县,甘孜县份,西康省县份,</t>
+  </si>
+  <si>
+    <t>2001年香港羽毛球公开赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/2001%E5%B9%B4%E9%A6%99%E6%B8%AF%E7%BE%BD%E6%AF%9B%E7%90%83%E5%85%AC%E5%BC%80%E8%B5%9B</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/2001%E5%B9%B4%E9%A6%99%E6%B8%AF%E7%BE%BD%E6%AF%9B%E7%90%83%E5%85%AC%E9%96%8B%E8%B3%BD/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2015-03-06</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=2001%E5%B9%B4%E9%A6%99%E6%B8%AF%E7%BE%BD%E6%AF%9B%E7%90%83%E5%85%AC%E9%96%8B%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>2001年世界羽毛球大奖赛,香港公开羽毛球锦标赛,</t>
+  </si>
+  <si>
+    <t>三洞经书目录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%89%E6%B4%9E%E7%BB%8F%E4%B9%A6%E7%9B%AE%E5%BD%95</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E4%B8%89%E6%B4%9E%E7%BB%8F%E4%B9%A6%E7%9B%AE%E5%BD%95/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2005-09-02</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E4%B8%89%E6%B4%9E%E7%BB%8F%E4%B9%A6%E7%9B%AE%E5%BD%95</t>
+  </si>
+  <si>
+    <t>道经,道藏,南京书籍,</t>
+  </si>
+  <si>
+    <t>基路伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%BA%E8%B7%AF%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%99%BA%E5%A4%A9%E4%BD%BF/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-01-23</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%99%BA%E5%A4%A9%E4%BD%BF</t>
+  </si>
+  <si>
+    <t>犹太教中的天使,基督教中的天使,会幕与耶路撒冷圣殿,希伯来圣经,天使的级别,</t>
+  </si>
+  <si>
+    <t>垂花山姜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9E%82%E8%8A%B1%E5%B1%B1%E5%A7%9C</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%9E%82%E8%8A%B1%E5%B1%B1%E5%A7%9C/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%9E%82%E8%8A%B1%E5%B1%B1%E5%A7%9C</t>
+  </si>
+  <si>
+    <t>山姜属,</t>
+  </si>
+  <si>
+    <t>沙筛贝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B2%99%E7%AD%9B%E8%B4%9D</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%B2%99%E7%AD%9B%E8%B4%9D/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-08-14</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%B2%99%E7%AD%9B%E8%B4%9D</t>
+  </si>
+  <si>
+    <t>似壳菜蛤科,</t>
+  </si>
+  <si>
+    <t>僧璨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%83%A7%E7%92%A8</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%83%A7%E7%92%A8/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-04-13</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%83%A7%E7%92%A8</t>
+  </si>
+  <si>
+    <t>禅僧,南北朝僧人,</t>
+  </si>
+  <si>
+    <t>张殊凡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BC%A0%E6%AE%8A%E5%87%A1</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%BE%88%E9%BB%84%E5%BE%88%E6%9A%B4%E5%8A%9B/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2008-01-06</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%BE%88%E9%BB%84%E5%BE%88%E6%9A%B4%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>2008年中国网络事件,中国大陆网络流行语,中国网络恶搞文化,中国中央电视台,</t>
+  </si>
+  <si>
+    <t>倔强</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%80%94%E5%BC%BA</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%80%94%E5%BC%B7/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2010-04-28</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%80%94%E5%BC%B7</t>
+  </si>
+  <si>
+    <t>五月天歌曲,中文流行歌曲,2004年单曲,</t>
+  </si>
+  <si>
+    <t>赵抃祠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B5%B5%E6%8A%83%E7%A5%A0</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E8%B5%B5%E6%8A%83%E7%A5%A0/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E8%B5%B5%E6%8A%83%E7%A5%A0</t>
+  </si>
+  <si>
+    <t>浙江省文物保护单位,清朝的祠,衢州文物保护单位,衢州的祠,柯城区,</t>
+  </si>
+  <si>
+    <t>中华坛花兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E5%9D%9B%E8%8A%B1%E5%85%B0</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E4%B8%AD%E5%8D%8E%E5%9D%9B%E8%8A%B1%E5%85%B0/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E4%B8%AD%E5%8D%8E%E5%9D%9B%E8%8A%B1%E5%85%B0</t>
+  </si>
+  <si>
+    <t>IUCN濒危物种,坛花兰属,</t>
+  </si>
+  <si>
+    <t>吴正爱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%90%B4%E6%AD%A3%E7%88%B1</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%90%B4%E6%AD%A3%E7%88%B1/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2008-08-11</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%90%B4%E6%AD%A3%E7%88%B1</t>
+  </si>
+  <si>
+    <t>1984年出生,在世人物,朝鲜奥林匹克运动会铜牌得主,2008年夏季奥林匹克运动会奖牌得主,朝鲜举重运动员,2010年亚洲运动会运动员,</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/shake</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/Shake/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-10-17</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=Shake</t>
+  </si>
+  <si>
+    <t>苹果公司软件,MacOS软件,视频编辑软件,</t>
+  </si>
+  <si>
+    <t>滇芹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BB%87%E8%8A%B9</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%BB%87%E8%8A%B9/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%BB%87%E8%8A%B9</t>
+  </si>
+  <si>
+    <t>滇芹属,</t>
+  </si>
+  <si>
+    <t>于谦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%8E%E8%B0%A6</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E4%BA%8E%E8%B0%A6/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2005-05-21</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E4%BA%8E%E8%B0%A6</t>
+  </si>
+  <si>
+    <t>1398年出生,1457年逝世,永乐十九年辛丑科进士,明朝监察御史,明朝大理寺少卿,明朝山西河南巡抚,明朝兵部尚书,明朝太子三少,明朝三孤,明朝军事家,明朝被处决者,道教神祇,人物神,杭州人,于姓,谥忠肃,葬于杭州,</t>
+  </si>
+  <si>
+    <t>法尔斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%95%E5%B0%94%E6%96%AF</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%B3%95%E7%88%BE%E6%96%AF%E7%9C%81/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-12-17</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%B3%95%E7%88%BE%E6%96%AF%E7%9C%81</t>
+  </si>
+  <si>
+    <t>法尔斯省,</t>
+  </si>
+  <si>
+    <t>希贾布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%8C%E8%B4%BE%E5%B8%83</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%B8%8C%E8%B4%BE%E5%B8%83/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-08-29</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%B8%8C%E8%B4%BE%E5%B8%83</t>
+  </si>
+  <si>
+    <t>头巾,伊斯兰女性衣着,</t>
+  </si>
+  <si>
+    <t>新达尔文主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E8%BE%BE%E5%B0%94%E6%96%87%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%8E%B0%E4%BB%A3%E6%BC%94%E5%8C%96%E7%BB%BC%E8%AE%BA/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-02-03</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%8E%B0%E4%BB%A3%E6%BC%94%E5%8C%96%E7%BB%BC%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>演化生物学,生物学史,生物学理论,</t>
+  </si>
+  <si>
+    <t>詹姆斯·福克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%A6%8F%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%A6%8F%E5%85%8B%E6%96%AF/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2016-03-24</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%A6%8F%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>1939年出生,在世人物,英国男演员,英国电影演员,英国电视演员,英格兰男电影演员,英格兰男电视演员,伦敦人,</t>
+  </si>
+  <si>
+    <t>阿波美王宫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E6%B3%A2%E7%BE%8E%E7%8E%8B%E5%AE%AB</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%98%BF%E6%B3%A2%E7%BE%8E%E7%8E%8B%E5%AE%AB/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2011-04-23</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%98%BF%E6%B3%A2%E7%BE%8E%E7%8E%8B%E5%AE%AB</t>
+  </si>
+  <si>
+    <t>非洲宫殿,非洲地标,贝南建筑物,贝宁世界遗产,</t>
+  </si>
+  <si>
+    <t>雷焕章</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%B7%E7%84%95%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%9B%B7%E7%85%A5%E7%AB%A0/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2010-09-30</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%9B%B7%E7%85%A5%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>1922年出生,2010年逝世,台湾天主教神父,法国汉学家,汉字学家,耶稣会神父,法国天主教传教士,东海大学教授,在台湾的法国人,死于肺炎的人,艺术与文学骑士勋章,</t>
+  </si>
+  <si>
+    <t>布卡马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%83%E5%8D%A1%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%B8%83%E5%8D%A1%E9%A6%AC/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2011-11-28</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%B8%83%E5%8D%A1%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>刚果民主共和国城市,</t>
+  </si>
+  <si>
+    <t>帕特诺-比希反应</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%95%E7%89%B9%E8%AF%BA-%E6%AF%94%E5%B8%8C%E5%8F%8D%E5%BA%94</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%B8%95%E7%89%B9%E8%AF%BA-%E6%AF%94%E5%B8%8C%E5%8F%8D%E5%BA%94/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-11-04</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%B8%95%E7%89%B9%E8%AF%BA-%E6%AF%94%E5%B8%8C%E5%8F%8D%E5%BA%94</t>
+  </si>
+  <si>
+    <t>光化学,环加成反应,人名反应,</t>
+  </si>
+  <si>
+    <t>马塞纳广场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E5%A1%9E%E7%BA%B3%E5%B9%BF%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%A9%AC%E5%A1%9E%E7%BA%B3%E5%B9%BF%E5%9C%BA/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2010-01-07</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%A9%AC%E5%A1%9E%E7%BA%B3%E5%B9%BF%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>尼斯,</t>
+  </si>
+  <si>
+    <t>大果俞藤</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E6%9E%9C%E4%BF%9E%E8%97%A4</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%A4%A7%E6%9E%9C%E4%BF%9E%E8%97%A4/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%A4%A7%E6%9E%9C%E4%BF%9E%E8%97%A4</t>
+  </si>
+  <si>
+    <t>俞藤属,</t>
+  </si>
+  <si>
+    <t>历代帝王庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8E%86%E4%BB%A3%E5%B8%9D%E7%8E%8B%E5%BA%99</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%8E%86%E4%BB%A3%E5%B8%9D%E7%8E%8B%E5%BA%99/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-06-07</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%8E%86%E4%BB%A3%E5%B8%9D%E7%8E%8B%E5%BA%99</t>
+  </si>
+  <si>
+    <t>北京全国重点文物保护单位,明朝皇家建筑 (北京),清朝皇家建筑,北京庙宇,明朝庙宇,清朝庙宇,中国君主,</t>
+  </si>
+  <si>
+    <t>来自风平浪静的明天</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%A5%E8%87%AA%E9%A3%8E%E5%B9%B3%E6%B5%AA%E9%9D%99%E7%9A%84%E6%98%8E%E5%A4%A9</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%9D%A5%E8%87%AA%E9%A3%8E%E5%B9%B3%E6%B5%AA%E9%9D%99%E7%9A%84%E6%98%8E%E5%A4%A9/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2013-01-08</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%9D%A5%E8%87%AA%E9%A3%8E%E5%B9%B3%E6%B5%AA%E9%9D%99%E7%9A%84%E6%98%8E%E5%A4%A9</t>
+  </si>
+  <si>
+    <t>未完结的作品,P.A. Works,少年漫画,奇幻漫画,中学背景漫画,2013年UHF动画,月刊Comic电击大王连载作品,中学背景动画,奇幻动画,海相关作品,日本原创电视动画,Bilibili外购动画,</t>
+  </si>
+  <si>
+    <t>We Are The One</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/We%20Are%20The%20One</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/We_Are_The_One/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2014-04-29</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=We_Are_The_One</t>
+  </si>
+  <si>
+    <t>香港音乐专辑,2012年音乐专辑,张继聪音乐专辑,</t>
+  </si>
+  <si>
+    <t>纽博格林赛道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BA%BD%E5%8D%9A%E6%A0%BC%E6%9E%97%E8%B5%9B%E9%81%93</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E7%BA%BD%E5%8D%9A%E6%A0%BC%E6%9E%97%E8%B5%9B%E9%81%93/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2009-07-17</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E7%BA%BD%E5%8D%9A%E6%A0%BC%E6%9E%97%E8%B5%9B%E9%81%93</t>
+  </si>
+  <si>
+    <t>一级方程式赛道,</t>
+  </si>
+  <si>
+    <t>雷蒂亚铁路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%B7%E8%92%82%E4%BA%9A%E9%93%81%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%9B%B7%E8%92%82%E4%BA%9A%E9%93%81%E8%B7%AF/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%9B%B7%E8%92%82%E4%BA%9A%E9%93%81%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>瑞士世界遗产,意大利世界遗产,瑞士铁路公司,</t>
+  </si>
+  <si>
+    <t>老同盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%80%81%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E8%80%81%E5%90%8C%E7%9B%9F/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2007-11-16</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E8%80%81%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>军事同盟,英国历史,法国历史,苏格兰,</t>
+  </si>
+  <si>
+    <t>北方德比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%97%E6%96%B9%E5%BE%B7%E6%AF%94</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%8C%97%E6%96%B9%E5%BE%B7%E6%AF%94/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2012-04-01</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%8C%97%E6%96%B9%E5%BE%B7%E6%AF%94</t>
+  </si>
+  <si>
+    <t>德国足球,德比,</t>
+  </si>
+  <si>
+    <t>新田县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E7%94%B0%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E6%96%B0%E7%94%B0%E5%8E%BF/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2010-04-12</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E6%96%B0%E7%94%B0%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>新田县,永州区县,湖南省县份,国家级贫困县,</t>
+  </si>
+  <si>
+    <t>马歇尔调处</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E6%AD%87%E5%B0%94%E8%B0%83%E5%A4%84</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E9%A9%AC%E6%AD%87%E5%B0%94%E4%BD%BF%E5%8D%8E/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2011-01-25</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E9%A9%AC%E6%AD%87%E5%B0%94%E4%BD%BF%E5%8D%8E</t>
+  </si>
+  <si>
+    <t>自April 2016需要澄清文字的条目,第二次国共内战,中华民国与美国关系,</t>
+  </si>
+  <si>
+    <t>国立第四中山大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E7%AB%8B%E7%AC%AC%E5%9B%9B%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%9C%8B%E7%AB%8B%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%AD%B8_(%E5%8D%97%E4%BA%AC)/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2004-04-08</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%9C%8B%E7%AB%8B%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%AD%B8_(%E5%8D%97%E4%BA%AC)</t>
+  </si>
+  <si>
+    <t>江苏全国重点文物保护单位,中央大学,国立中央大学校史,1927年创建的教育机构,1952年废除,</t>
+  </si>
+  <si>
+    <t>鲍勃·马利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B2%8D%E5%8B%83%C2%B7%E9%A9%AC%E5%88%A9</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/zh.wikipedia/all-access/all-agents/%E5%B7%B4%E5%B8%83%C2%B7%E9%A6%AC%E5%88%A9/daily/2000110100/2017112000</t>
+  </si>
+  <si>
+    <t>2006-01-16</t>
+  </si>
+  <si>
+    <t>http://vs.aka-online.de/cgi-bin/wppagehiststat.pl?lang=zh.wikipedia&amp;page=%E5%B7%B4%E5%B8%83%C2%B7%E9%A6%AC%E5%88%A9</t>
+  </si>
+  <si>
+    <t>1945年出生,1981年逝世,牙买加歌手,雷鬼歌手,素食主义者,摇滚名人堂入选者,暗杀未遂幸存者,</t>
   </si>
 </sst>
 </file>
@@ -453,7 +2316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +2324,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -498,8 +2361,11 @@
       <c r="M1" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -510,239 +2376,4833 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>41484</v>
+        <v>13255</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>8345</v>
+        <v>8194</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>29247</v>
+        <v>55742</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K3" t="n">
-        <v>2390</v>
+        <v>8710</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>672</v>
+        <v>2049</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>629</v>
+        <v>1055</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>1521</v>
+        <v>995</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>688</v>
+        <v>432</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="n">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>1535</v>
+        <v>602</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>415</v>
+        <v>510</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26195</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>805</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1237</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>327</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11349</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>946</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9897</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>938</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3687</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="n">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="n">
+        <v>97907</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7045</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2115</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>494</v>
+      </c>
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12492</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>212</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="n">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2220</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>724</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="n">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="n">
+        <v>125</v>
+      </c>
+      <c r="G16" t="n">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="n">
+        <v>82835</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5316</v>
+      </c>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11686</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>756</v>
+      </c>
+      <c r="L17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="n">
+        <v>608</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>387</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="n">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1509</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>559</v>
+      </c>
+      <c r="L19" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="n">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4273</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2693</v>
+      </c>
+      <c r="L20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1079</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>553</v>
+      </c>
+      <c r="L21" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" t="n">
+        <v>607</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>517</v>
+      </c>
+      <c r="L22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="n">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>924</v>
+      </c>
+      <c r="L23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="n">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="n">
+        <v>120</v>
+      </c>
+      <c r="G24" t="n">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" t="n">
+        <v>35868</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1922</v>
+      </c>
+      <c r="L24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" t="s">
+        <v>137</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" t="n">
+        <v>592</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" t="s">
+        <v>143</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1456</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>492</v>
+      </c>
+      <c r="L26" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" t="s">
+        <v>148</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" t="n">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" t="n">
+        <v>33</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1235</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2373</v>
+      </c>
+      <c r="L27" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" t="s">
+        <v>154</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12</v>
+      </c>
+      <c r="G28" t="n">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" t="n">
+        <v>840</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>542</v>
+      </c>
+      <c r="L28" t="s">
+        <v>159</v>
+      </c>
+      <c r="M28" t="s">
+        <v>160</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F7" t="n">
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1331</v>
+      </c>
+      <c r="E29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" t="n">
+        <v>119</v>
+      </c>
+      <c r="G29" t="n">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39370</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>17649</v>
+      </c>
+      <c r="L29" t="s">
+        <v>165</v>
+      </c>
+      <c r="M29" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="n">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="n">
+        <v>117</v>
+      </c>
+      <c r="G30" t="n">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6794</v>
+      </c>
+      <c r="J30" t="n">
+        <v>39</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7414</v>
+      </c>
+      <c r="L30" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" t="s">
+        <v>172</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" t="n">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="n">
+        <v>40</v>
+      </c>
+      <c r="G31" t="n">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21309</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2033</v>
+      </c>
+      <c r="L31" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="n">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" t="n">
+        <v>632</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>642</v>
+      </c>
+      <c r="L32" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" t="s">
+        <v>184</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="n">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" t="n">
+        <v>41</v>
+      </c>
+      <c r="G33" t="n">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11910</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4061</v>
+      </c>
+      <c r="L33" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" t="s">
+        <v>189</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" t="n">
+        <v>27</v>
+      </c>
+      <c r="G34" t="n">
         <v>11</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H34" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6647</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3227</v>
+      </c>
+      <c r="L34" t="s">
+        <v>194</v>
+      </c>
+      <c r="M34" t="s">
+        <v>195</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2316</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>426</v>
+      </c>
+      <c r="L35" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" t="s">
+        <v>201</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="n">
+        <v>430</v>
+      </c>
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" t="n">
+        <v>46</v>
+      </c>
+      <c r="G36" t="n">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" t="n">
+        <v>39014</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6948</v>
+      </c>
+      <c r="L36" t="s">
+        <v>206</v>
+      </c>
+      <c r="M36" t="s">
+        <v>207</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" t="n">
+        <v>214</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" t="n">
+        <v>291</v>
+      </c>
+      <c r="G37" t="n">
+        <v>122</v>
+      </c>
+      <c r="H37" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" t="n">
+        <v>80796</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10458</v>
+      </c>
+      <c r="L37" t="s">
+        <v>212</v>
+      </c>
+      <c r="M37" t="s">
+        <v>213</v>
+      </c>
+      <c r="N37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" t="n">
+        <v>34</v>
+      </c>
+      <c r="G38" t="n">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" t="n">
+        <v>74875</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>760</v>
+      </c>
+      <c r="L38" t="s">
+        <v>218</v>
+      </c>
+      <c r="M38" t="s">
+        <v>219</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" t="n">
+        <v>18</v>
+      </c>
+      <c r="G39" t="n">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3188</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>747</v>
+      </c>
+      <c r="L39" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" t="s">
+        <v>225</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="n">
+        <v>481</v>
+      </c>
+      <c r="E40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" t="n">
+        <v>226</v>
+      </c>
+      <c r="G40" t="n">
+        <v>117</v>
+      </c>
+      <c r="H40" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" t="n">
+        <v>61065</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>9700</v>
+      </c>
+      <c r="L40" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" t="s">
+        <v>231</v>
+      </c>
+      <c r="N40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" t="n">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" t="n">
+        <v>139</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13262</v>
+      </c>
+      <c r="J41" t="n">
+        <v>27</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6299</v>
+      </c>
+      <c r="L41" t="s">
+        <v>236</v>
+      </c>
+      <c r="M41" t="s">
+        <v>237</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="n">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" t="n">
+        <v>52</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="n">
+        <v>36211</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2234</v>
+      </c>
+      <c r="L42" t="s">
+        <v>241</v>
+      </c>
+      <c r="M42" t="s">
+        <v>242</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" t="n">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" t="n">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>246</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>913</v>
+      </c>
+      <c r="L43" t="s">
+        <v>247</v>
+      </c>
+      <c r="M43" t="s">
+        <v>248</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" t="n">
+        <v>233</v>
+      </c>
+      <c r="E44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5399</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2734</v>
+      </c>
+      <c r="L44" t="s">
+        <v>253</v>
+      </c>
+      <c r="M44" t="s">
+        <v>254</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" t="n">
+        <v>452</v>
+      </c>
+      <c r="E45" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" t="n">
+        <v>208</v>
+      </c>
+      <c r="G45" t="n">
+        <v>116</v>
+      </c>
+      <c r="H45" t="s">
+        <v>258</v>
+      </c>
+      <c r="I45" t="n">
+        <v>108893</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9133</v>
+      </c>
+      <c r="L45" t="s">
+        <v>259</v>
+      </c>
+      <c r="M45" t="s">
+        <v>260</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" t="n">
+        <v>346</v>
+      </c>
+      <c r="E46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F46" t="n">
+        <v>14</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2229</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3259</v>
+      </c>
+      <c r="L46" t="s">
+        <v>265</v>
+      </c>
+      <c r="M46" t="s">
+        <v>266</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>270</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3273</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>562</v>
+      </c>
+      <c r="L47" t="s">
+        <v>271</v>
+      </c>
+      <c r="M47" t="s">
+        <v>272</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" t="n">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="s">
+        <v>276</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3434</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1376</v>
+      </c>
+      <c r="L48" t="s">
+        <v>277</v>
+      </c>
+      <c r="M48" t="s">
+        <v>278</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" t="n">
+        <v>159</v>
+      </c>
+      <c r="E49" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" t="n">
+        <v>26</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>282</v>
+      </c>
+      <c r="I49" t="n">
+        <v>39562</v>
+      </c>
+      <c r="J49" t="n">
+        <v>27</v>
+      </c>
+      <c r="K49" t="n">
+        <v>14716</v>
+      </c>
+      <c r="L49" t="s">
+        <v>283</v>
+      </c>
+      <c r="M49" t="s">
+        <v>284</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50" t="n">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" t="n">
         <v>28</v>
       </c>
-      <c r="I7" t="n">
-        <v>1208</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="G50" t="n">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>288</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9962</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3307</v>
+      </c>
+      <c r="L50" t="s">
+        <v>289</v>
+      </c>
+      <c r="M50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" t="n">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>294</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3307</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
-        <v>245</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K51" t="n">
+        <v>762</v>
+      </c>
+      <c r="L51" t="s">
+        <v>295</v>
+      </c>
+      <c r="M51" t="s">
+        <v>296</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" t="n">
+        <v>711</v>
+      </c>
+      <c r="E52" t="s">
+        <v>299</v>
+      </c>
+      <c r="F52" t="n">
+        <v>79</v>
+      </c>
+      <c r="G52" t="n">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10795</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15861</v>
+      </c>
+      <c r="L52" t="s">
+        <v>301</v>
+      </c>
+      <c r="M52" t="s">
+        <v>302</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" t="n">
+        <v>77</v>
+      </c>
+      <c r="E53" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1388</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>999</v>
+      </c>
+      <c r="L53" t="s">
+        <v>307</v>
+      </c>
+      <c r="M53" t="s">
+        <v>308</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" t="s">
+        <v>310</v>
+      </c>
+      <c r="D54" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s">
+        <v>311</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>312</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2120</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2230</v>
+      </c>
+      <c r="L54" t="s">
+        <v>313</v>
+      </c>
+      <c r="M54" t="s">
+        <v>314</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" t="n">
+        <v>180</v>
+      </c>
+      <c r="E55" t="s">
+        <v>317</v>
+      </c>
+      <c r="F55" t="n">
+        <v>101</v>
+      </c>
+      <c r="G55" t="n">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s">
+        <v>318</v>
+      </c>
+      <c r="I55" t="n">
+        <v>66006</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5705</v>
+      </c>
+      <c r="L55" t="s">
+        <v>319</v>
+      </c>
+      <c r="M55" t="s">
+        <v>320</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C56" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>323</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>324</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1420</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>424</v>
+      </c>
+      <c r="L56" t="s">
+        <v>325</v>
+      </c>
+      <c r="M56" t="s">
+        <v>326</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57" t="n">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" t="n">
+        <v>16</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>330</v>
+      </c>
+      <c r="I57" t="n">
+        <v>999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>572</v>
+      </c>
+      <c r="L57" t="s">
+        <v>331</v>
+      </c>
+      <c r="M57" t="s">
+        <v>332</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>333</v>
+      </c>
+      <c r="C58" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" t="n">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>335</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>336</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1096</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>922</v>
+      </c>
+      <c r="L58" t="s">
+        <v>337</v>
+      </c>
+      <c r="M58" t="s">
+        <v>338</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>339</v>
+      </c>
+      <c r="C59" t="s">
+        <v>340</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>341</v>
+      </c>
+      <c r="F59" t="n">
+        <v>13</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>342</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4507</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>199</v>
+      </c>
+      <c r="L59" t="s">
+        <v>343</v>
+      </c>
+      <c r="M59" t="s">
+        <v>344</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>345</v>
+      </c>
+      <c r="C60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D60" t="n">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>347</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="s">
+        <v>348</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1998</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>482</v>
+      </c>
+      <c r="L60" t="s">
+        <v>349</v>
+      </c>
+      <c r="M60" t="s">
+        <v>350</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>351</v>
+      </c>
+      <c r="C61" t="s">
+        <v>352</v>
+      </c>
+      <c r="D61" t="n">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>353</v>
+      </c>
+      <c r="F61" t="n">
+        <v>21</v>
+      </c>
+      <c r="G61" t="n">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>354</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20434</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s">
+        <v>355</v>
+      </c>
+      <c r="M61" t="s">
+        <v>356</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" t="s">
+        <v>358</v>
+      </c>
+      <c r="D62" t="n">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>359</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>360</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2163</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>476</v>
+      </c>
+      <c r="L62" t="s">
+        <v>361</v>
+      </c>
+      <c r="M62" t="s">
+        <v>362</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" t="s">
+        <v>364</v>
+      </c>
+      <c r="D63" t="n">
+        <v>68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>365</v>
+      </c>
+      <c r="F63" t="n">
+        <v>46</v>
+      </c>
+      <c r="G63" t="n">
         <v>29</v>
       </c>
-      <c r="M7" t="n">
+      <c r="H63" t="s">
+        <v>366</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21334</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1873</v>
+      </c>
+      <c r="L63" t="s">
+        <v>367</v>
+      </c>
+      <c r="M63" t="s">
+        <v>368</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" t="s">
+        <v>370</v>
+      </c>
+      <c r="D64" t="n">
+        <v>332</v>
+      </c>
+      <c r="E64" t="s">
+        <v>371</v>
+      </c>
+      <c r="F64" t="n">
+        <v>63</v>
+      </c>
+      <c r="G64" t="n">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s">
+        <v>372</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13209</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4963</v>
+      </c>
+      <c r="L64" t="s">
+        <v>373</v>
+      </c>
+      <c r="M64" t="s">
+        <v>374</v>
+      </c>
+      <c r="N64" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" t="s">
+        <v>376</v>
+      </c>
+      <c r="D65" t="n">
+        <v>49</v>
+      </c>
+      <c r="E65" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>378</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1563</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>810</v>
+      </c>
+      <c r="L65" t="s">
+        <v>379</v>
+      </c>
+      <c r="M65" t="s">
+        <v>380</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>381</v>
+      </c>
+      <c r="C66" t="s">
+        <v>382</v>
+      </c>
+      <c r="D66" t="n">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>383</v>
+      </c>
+      <c r="F66" t="n">
+        <v>22</v>
+      </c>
+      <c r="G66" t="n">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>384</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4601</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2076</v>
+      </c>
+      <c r="L66" t="s">
+        <v>385</v>
+      </c>
+      <c r="M66" t="s">
+        <v>386</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C67" t="s">
+        <v>388</v>
+      </c>
+      <c r="D67" t="n">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>389</v>
+      </c>
+      <c r="F67" t="n">
+        <v>6</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>390</v>
+      </c>
+      <c r="I67" t="n">
+        <v>697</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>767</v>
+      </c>
+      <c r="L67" t="s">
+        <v>391</v>
+      </c>
+      <c r="M67" t="s">
+        <v>392</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" t="s">
+        <v>394</v>
+      </c>
+      <c r="D68" t="n">
+        <v>201</v>
+      </c>
+      <c r="E68" t="s">
+        <v>395</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20</v>
+      </c>
+      <c r="G68" t="n">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>396</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10538</v>
+      </c>
+      <c r="J68" t="n">
+        <v>33</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6476</v>
+      </c>
+      <c r="L68" t="s">
+        <v>397</v>
+      </c>
+      <c r="M68" t="s">
+        <v>398</v>
+      </c>
+      <c r="N68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C69" t="s">
+        <v>400</v>
+      </c>
+      <c r="D69" t="n">
+        <v>51</v>
+      </c>
+      <c r="E69" t="s">
+        <v>401</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15</v>
+      </c>
+      <c r="G69" t="n">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>402</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1908</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1291</v>
+      </c>
+      <c r="L69" t="s">
+        <v>403</v>
+      </c>
+      <c r="M69" t="s">
+        <v>404</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>405</v>
+      </c>
+      <c r="C70" t="s">
+        <v>406</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>407</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>408</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2028</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>775</v>
+      </c>
+      <c r="L70" t="s">
+        <v>409</v>
+      </c>
+      <c r="M70" t="s">
+        <v>410</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>411</v>
+      </c>
+      <c r="C71" t="s">
+        <v>412</v>
+      </c>
+      <c r="D71" t="n">
+        <v>140</v>
+      </c>
+      <c r="E71" t="s">
+        <v>413</v>
+      </c>
+      <c r="F71" t="n">
+        <v>63</v>
+      </c>
+      <c r="G71" t="n">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s">
+        <v>414</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18339</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>8041</v>
+      </c>
+      <c r="L71" t="s">
+        <v>415</v>
+      </c>
+      <c r="M71" t="s">
+        <v>416</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>417</v>
+      </c>
+      <c r="C72" t="s">
+        <v>418</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>419</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
+        <v>420</v>
+      </c>
+      <c r="I72" t="n">
+        <v>468</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>326</v>
+      </c>
+      <c r="L72" t="s">
+        <v>421</v>
+      </c>
+      <c r="M72" t="s">
+        <v>422</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>423</v>
+      </c>
+      <c r="C73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D73" t="n">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>425</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>426</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12549</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3325</v>
+      </c>
+      <c r="L73" t="s">
+        <v>427</v>
+      </c>
+      <c r="M73" t="s">
+        <v>428</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>429</v>
+      </c>
+      <c r="C74" t="s">
+        <v>430</v>
+      </c>
+      <c r="D74" t="n">
+        <v>77</v>
+      </c>
+      <c r="E74" t="s">
+        <v>431</v>
+      </c>
+      <c r="F74" t="n">
+        <v>23</v>
+      </c>
+      <c r="G74" t="n">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s">
+        <v>432</v>
+      </c>
+      <c r="I74" t="n">
+        <v>73280</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1319</v>
+      </c>
+      <c r="L74" t="s">
+        <v>433</v>
+      </c>
+      <c r="M74" t="s">
+        <v>434</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>435</v>
+      </c>
+      <c r="C75" t="s">
+        <v>436</v>
+      </c>
+      <c r="D75" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>437</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>438</v>
+      </c>
+      <c r="I75" t="n">
+        <v>913</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>489</v>
+      </c>
+      <c r="L75" t="s">
+        <v>439</v>
+      </c>
+      <c r="M75" t="s">
+        <v>440</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>441</v>
+      </c>
+      <c r="C76" t="s">
+        <v>442</v>
+      </c>
+      <c r="D76" t="n">
+        <v>265</v>
+      </c>
+      <c r="E76" t="s">
+        <v>443</v>
+      </c>
+      <c r="F76" t="n">
+        <v>22</v>
+      </c>
+      <c r="G76" t="n">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>432</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4044</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2070</v>
+      </c>
+      <c r="L76" t="s">
+        <v>444</v>
+      </c>
+      <c r="M76" t="s">
+        <v>445</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>446</v>
+      </c>
+      <c r="C77" t="s">
+        <v>447</v>
+      </c>
+      <c r="D77" t="n">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>448</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>449</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1139</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L77" t="s">
+        <v>450</v>
+      </c>
+      <c r="M77" t="s">
+        <v>451</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>452</v>
+      </c>
+      <c r="C78" t="s">
+        <v>453</v>
+      </c>
+      <c r="D78" t="n">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>454</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="s">
+        <v>455</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3357</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>427</v>
+      </c>
+      <c r="L78" t="s">
+        <v>456</v>
+      </c>
+      <c r="M78" t="s">
+        <v>457</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>458</v>
+      </c>
+      <c r="C79" t="s">
+        <v>459</v>
+      </c>
+      <c r="D79" t="n">
+        <v>98</v>
+      </c>
+      <c r="E79" t="s">
+        <v>460</v>
+      </c>
+      <c r="F79" t="n">
+        <v>79</v>
+      </c>
+      <c r="G79" t="n">
+        <v>64</v>
+      </c>
+      <c r="H79" t="s">
+        <v>461</v>
+      </c>
+      <c r="I79" t="n">
+        <v>86979</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3274</v>
+      </c>
+      <c r="L79" t="s">
+        <v>462</v>
+      </c>
+      <c r="M79" t="s">
+        <v>463</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>464</v>
+      </c>
+      <c r="C80" t="s">
+        <v>465</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>466</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>123</v>
+      </c>
+      <c r="I80" t="n">
+        <v>715</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>495</v>
+      </c>
+      <c r="L80" t="s">
+        <v>467</v>
+      </c>
+      <c r="M80" t="s">
+        <v>468</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>469</v>
+      </c>
+      <c r="C81" t="s">
+        <v>470</v>
+      </c>
+      <c r="D81" t="n">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>471</v>
+      </c>
+      <c r="F81" t="n">
+        <v>12</v>
+      </c>
+      <c r="G81" t="n">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>472</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1479</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>413</v>
+      </c>
+      <c r="L81" t="s">
+        <v>473</v>
+      </c>
+      <c r="M81" t="s">
+        <v>474</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" t="s">
+        <v>476</v>
+      </c>
+      <c r="D82" t="n">
+        <v>131</v>
+      </c>
+      <c r="E82" t="s">
+        <v>477</v>
+      </c>
+      <c r="F82" t="n">
+        <v>44</v>
+      </c>
+      <c r="G82" t="n">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s">
+        <v>478</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17627</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2096</v>
+      </c>
+      <c r="L82" t="s">
+        <v>479</v>
+      </c>
+      <c r="M82" t="s">
+        <v>480</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>481</v>
+      </c>
+      <c r="C83" t="s">
+        <v>482</v>
+      </c>
+      <c r="D83" t="n">
+        <v>73</v>
+      </c>
+      <c r="E83" t="s">
+        <v>483</v>
+      </c>
+      <c r="F83" t="n">
+        <v>213</v>
+      </c>
+      <c r="G83" t="n">
+        <v>97</v>
+      </c>
+      <c r="H83" t="s">
+        <v>484</v>
+      </c>
+      <c r="I83" t="n">
+        <v>24707</v>
+      </c>
+      <c r="J83" t="n">
+        <v>25</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3505</v>
+      </c>
+      <c r="L83" t="s">
+        <v>485</v>
+      </c>
+      <c r="M83" t="s">
+        <v>486</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>487</v>
+      </c>
+      <c r="C84" t="s">
+        <v>488</v>
+      </c>
+      <c r="D84" t="n">
+        <v>40</v>
+      </c>
+      <c r="E84" t="s">
+        <v>489</v>
+      </c>
+      <c r="F84" t="n">
+        <v>41</v>
+      </c>
+      <c r="G84" t="n">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>490</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10325</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1178</v>
+      </c>
+      <c r="L84" t="s">
+        <v>491</v>
+      </c>
+      <c r="M84" t="s">
+        <v>492</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>493</v>
+      </c>
+      <c r="C85" t="s">
+        <v>494</v>
+      </c>
+      <c r="D85" t="n">
+        <v>34</v>
+      </c>
+      <c r="E85" t="s">
+        <v>495</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>496</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1282</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1695</v>
+      </c>
+      <c r="L85" t="s">
+        <v>497</v>
+      </c>
+      <c r="M85" t="s">
+        <v>498</v>
+      </c>
+      <c r="N85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>499</v>
+      </c>
+      <c r="C86" t="s">
+        <v>500</v>
+      </c>
+      <c r="D86" t="n">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>501</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="s">
+        <v>438</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1169</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>549</v>
+      </c>
+      <c r="L86" t="s">
+        <v>502</v>
+      </c>
+      <c r="M86" t="s">
+        <v>503</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>504</v>
+      </c>
+      <c r="C87" t="s">
+        <v>505</v>
+      </c>
+      <c r="D87" t="n">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>506</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>507</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1193</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>402</v>
+      </c>
+      <c r="L87" t="s">
+        <v>508</v>
+      </c>
+      <c r="M87" t="s">
+        <v>509</v>
+      </c>
+      <c r="N87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>510</v>
+      </c>
+      <c r="C88" t="s">
+        <v>511</v>
+      </c>
+      <c r="D88" t="n">
+        <v>23</v>
+      </c>
+      <c r="E88" t="s">
+        <v>512</v>
+      </c>
+      <c r="F88" t="n">
+        <v>22</v>
+      </c>
+      <c r="G88" t="n">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>513</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3975</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>443</v>
+      </c>
+      <c r="L88" t="s">
+        <v>514</v>
+      </c>
+      <c r="M88" t="s">
+        <v>515</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>516</v>
+      </c>
+      <c r="C89" t="s">
+        <v>517</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>518</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>123</v>
+      </c>
+      <c r="I89" t="n">
+        <v>851</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>504</v>
+      </c>
+      <c r="L89" t="s">
+        <v>519</v>
+      </c>
+      <c r="M89" t="s">
+        <v>520</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>521</v>
+      </c>
+      <c r="C90" t="s">
+        <v>522</v>
+      </c>
+      <c r="D90" t="n">
+        <v>303</v>
+      </c>
+      <c r="E90" t="s">
+        <v>523</v>
+      </c>
+      <c r="F90" t="n">
+        <v>308</v>
+      </c>
+      <c r="G90" t="n">
+        <v>114</v>
+      </c>
+      <c r="H90" t="s">
+        <v>524</v>
+      </c>
+      <c r="I90" t="n">
+        <v>120348</v>
+      </c>
+      <c r="J90" t="n">
+        <v>60</v>
+      </c>
+      <c r="K90" t="n">
+        <v>20005</v>
+      </c>
+      <c r="L90" t="s">
+        <v>525</v>
+      </c>
+      <c r="M90" t="s">
+        <v>526</v>
+      </c>
+      <c r="N90" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>527</v>
+      </c>
+      <c r="C91" t="s">
+        <v>528</v>
+      </c>
+      <c r="D91" t="n">
+        <v>143</v>
+      </c>
+      <c r="E91" t="s">
+        <v>529</v>
+      </c>
+      <c r="F91" t="n">
+        <v>66</v>
+      </c>
+      <c r="G91" t="n">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s">
+        <v>530</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6216</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1743</v>
+      </c>
+      <c r="L91" t="s">
+        <v>531</v>
+      </c>
+      <c r="M91" t="s">
+        <v>532</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>533</v>
+      </c>
+      <c r="C92" t="s">
+        <v>534</v>
+      </c>
+      <c r="D92" t="n">
+        <v>79</v>
+      </c>
+      <c r="E92" t="s">
+        <v>535</v>
+      </c>
+      <c r="F92" t="n">
+        <v>39</v>
+      </c>
+      <c r="G92" t="n">
+        <v>33</v>
+      </c>
+      <c r="H92" t="s">
+        <v>536</v>
+      </c>
+      <c r="I92" t="n">
+        <v>54412</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1124</v>
+      </c>
+      <c r="L92" t="s">
+        <v>537</v>
+      </c>
+      <c r="M92" t="s">
+        <v>538</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>539</v>
+      </c>
+      <c r="C93" t="s">
+        <v>540</v>
+      </c>
+      <c r="D93" t="n">
+        <v>183</v>
+      </c>
+      <c r="E93" t="s">
+        <v>541</v>
+      </c>
+      <c r="F93" t="n">
+        <v>45</v>
+      </c>
+      <c r="G93" t="n">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s">
+        <v>542</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11619</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3918</v>
+      </c>
+      <c r="L93" t="s">
+        <v>543</v>
+      </c>
+      <c r="M93" t="s">
+        <v>544</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>545</v>
+      </c>
+      <c r="C94" t="s">
+        <v>546</v>
+      </c>
+      <c r="D94" t="n">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
+        <v>547</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>548</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3342</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>726</v>
+      </c>
+      <c r="L94" t="s">
+        <v>549</v>
+      </c>
+      <c r="M94" t="s">
+        <v>550</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>551</v>
+      </c>
+      <c r="C95" t="s">
+        <v>552</v>
+      </c>
+      <c r="D95" t="n">
+        <v>39</v>
+      </c>
+      <c r="E95" t="s">
+        <v>553</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>554</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2922</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1043</v>
+      </c>
+      <c r="L95" t="s">
+        <v>555</v>
+      </c>
+      <c r="M95" t="s">
+        <v>556</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>557</v>
+      </c>
+      <c r="C96" t="s">
+        <v>558</v>
+      </c>
+      <c r="D96" t="n">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>559</v>
+      </c>
+      <c r="F96" t="n">
+        <v>40</v>
+      </c>
+      <c r="G96" t="n">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>560</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>525</v>
+      </c>
+      <c r="L96" t="s">
+        <v>561</v>
+      </c>
+      <c r="M96" t="s">
+        <v>562</v>
+      </c>
+      <c r="N96" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>563</v>
+      </c>
+      <c r="C97" t="s">
+        <v>564</v>
+      </c>
+      <c r="D97" t="n">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>565</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5</v>
+      </c>
+      <c r="H97" t="s">
+        <v>566</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1123</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>413</v>
+      </c>
+      <c r="L97" t="s">
+        <v>567</v>
+      </c>
+      <c r="M97" t="s">
+        <v>568</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>569</v>
+      </c>
+      <c r="C98" t="s">
+        <v>570</v>
+      </c>
+      <c r="D98" t="n">
+        <v>16</v>
+      </c>
+      <c r="E98" t="s">
+        <v>571</v>
+      </c>
+      <c r="F98" t="n">
+        <v>15</v>
+      </c>
+      <c r="G98" t="n">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>572</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1616</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>775</v>
+      </c>
+      <c r="L98" t="s">
+        <v>573</v>
+      </c>
+      <c r="M98" t="s">
+        <v>574</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>575</v>
+      </c>
+      <c r="C99" t="s">
+        <v>576</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>577</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+      <c r="H99" t="s">
+        <v>578</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3927</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>832</v>
+      </c>
+      <c r="L99" t="s">
+        <v>579</v>
+      </c>
+      <c r="M99" t="s">
+        <v>580</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>581</v>
+      </c>
+      <c r="C100" t="s">
+        <v>582</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>583</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="s">
+        <v>438</v>
+      </c>
+      <c r="I100" t="n">
+        <v>521</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>486</v>
+      </c>
+      <c r="L100" t="s">
+        <v>584</v>
+      </c>
+      <c r="M100" t="s">
+        <v>585</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>586</v>
+      </c>
+      <c r="C101" t="s">
+        <v>587</v>
+      </c>
+      <c r="D101" t="n">
+        <v>606</v>
+      </c>
+      <c r="E101" t="s">
+        <v>588</v>
+      </c>
+      <c r="F101" t="n">
+        <v>63</v>
+      </c>
+      <c r="G101" t="n">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s">
+        <v>589</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14850</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>14068</v>
+      </c>
+      <c r="L101" t="s">
+        <v>590</v>
+      </c>
+      <c r="M101" t="s">
+        <v>591</v>
+      </c>
+      <c r="N101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>592</v>
+      </c>
+      <c r="C102" t="s">
+        <v>593</v>
+      </c>
+      <c r="D102" t="n">
+        <v>136</v>
+      </c>
+      <c r="E102" t="s">
+        <v>594</v>
+      </c>
+      <c r="F102" t="n">
+        <v>563</v>
+      </c>
+      <c r="G102" t="n">
+        <v>181</v>
+      </c>
+      <c r="H102" t="s">
+        <v>595</v>
+      </c>
+      <c r="I102" t="n">
+        <v>300374</v>
+      </c>
+      <c r="J102" t="n">
+        <v>15</v>
+      </c>
+      <c r="K102" t="n">
+        <v>13525</v>
+      </c>
+      <c r="L102" t="s">
+        <v>596</v>
+      </c>
+      <c r="M102" t="s">
+        <v>597</v>
+      </c>
+      <c r="N102" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>598</v>
+      </c>
+      <c r="C103" t="s">
+        <v>599</v>
+      </c>
+      <c r="D103" t="n">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>600</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>601</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2219</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>971</v>
+      </c>
+      <c r="L103" t="s">
+        <v>602</v>
+      </c>
+      <c r="M103" t="s">
+        <v>603</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>604</v>
+      </c>
+      <c r="C104" t="s">
+        <v>605</v>
+      </c>
+      <c r="D104" t="n">
+        <v>203</v>
+      </c>
+      <c r="E104" t="s">
+        <v>606</v>
+      </c>
+      <c r="F104" t="n">
+        <v>74</v>
+      </c>
+      <c r="G104" t="n">
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>607</v>
+      </c>
+      <c r="I104" t="n">
+        <v>112156</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3</v>
+      </c>
+      <c r="K104" t="n">
+        <v>12484</v>
+      </c>
+      <c r="L104" t="s">
+        <v>608</v>
+      </c>
+      <c r="M104" t="s">
+        <v>609</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>610</v>
+      </c>
+      <c r="C105" t="s">
+        <v>611</v>
+      </c>
+      <c r="D105" t="n">
+        <v>156</v>
+      </c>
+      <c r="E105" t="s">
+        <v>612</v>
+      </c>
+      <c r="F105" t="n">
+        <v>19</v>
+      </c>
+      <c r="G105" t="n">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6345</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3178</v>
+      </c>
+      <c r="L105" t="s">
+        <v>613</v>
+      </c>
+      <c r="M105" t="s">
+        <v>614</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>615</v>
+      </c>
+      <c r="C106" t="s">
+        <v>616</v>
+      </c>
+      <c r="D106" t="n">
+        <v>67</v>
+      </c>
+      <c r="E106" t="s">
+        <v>617</v>
+      </c>
+      <c r="F106" t="n">
+        <v>30</v>
+      </c>
+      <c r="G106" t="n">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>618</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5217</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4933</v>
+      </c>
+      <c r="L106" t="s">
+        <v>619</v>
+      </c>
+      <c r="M106" t="s">
+        <v>620</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>621</v>
+      </c>
+      <c r="C107" t="s">
+        <v>622</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>623</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7</v>
+      </c>
+      <c r="H107" t="s">
+        <v>624</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>320</v>
+      </c>
+      <c r="L107" t="s">
+        <v>625</v>
+      </c>
+      <c r="M107" t="s">
+        <v>626</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>627</v>
+      </c>
+      <c r="C108" t="s">
+        <v>628</v>
+      </c>
+      <c r="D108" t="n">
+        <v>878</v>
+      </c>
+      <c r="E108" t="s">
+        <v>629</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="n">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s">
+        <v>630</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6668</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6653</v>
+      </c>
+      <c r="L108" t="s">
+        <v>631</v>
+      </c>
+      <c r="M108" t="s">
+        <v>632</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>633</v>
+      </c>
+      <c r="C109" t="s">
+        <v>634</v>
+      </c>
+      <c r="D109" t="n">
+        <v>406</v>
+      </c>
+      <c r="E109" t="s">
+        <v>635</v>
+      </c>
+      <c r="F109" t="n">
+        <v>293</v>
+      </c>
+      <c r="G109" t="n">
+        <v>44</v>
+      </c>
+      <c r="H109" t="s">
+        <v>636</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20026</v>
+      </c>
+      <c r="J109" t="n">
+        <v>27</v>
+      </c>
+      <c r="K109" t="n">
+        <v>19637</v>
+      </c>
+      <c r="L109" t="s">
+        <v>637</v>
+      </c>
+      <c r="M109" t="s">
+        <v>638</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>639</v>
+      </c>
+      <c r="C110" t="s">
+        <v>640</v>
+      </c>
+      <c r="D110" t="n">
+        <v>310</v>
+      </c>
+      <c r="E110" t="s">
+        <v>641</v>
+      </c>
+      <c r="F110" t="n">
+        <v>899</v>
+      </c>
+      <c r="G110" t="n">
+        <v>184</v>
+      </c>
+      <c r="H110" t="s">
+        <v>642</v>
+      </c>
+      <c r="I110" t="n">
+        <v>41183</v>
+      </c>
+      <c r="J110" t="n">
+        <v>49</v>
+      </c>
+      <c r="K110" t="n">
+        <v>19295</v>
+      </c>
+      <c r="L110" t="s">
+        <v>643</v>
+      </c>
+      <c r="M110" t="s">
+        <v>644</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>645</v>
+      </c>
+      <c r="C111" t="s">
+        <v>646</v>
+      </c>
+      <c r="D111" t="n">
+        <v>181</v>
+      </c>
+      <c r="E111" t="s">
+        <v>647</v>
+      </c>
+      <c r="F111" t="n">
+        <v>148</v>
+      </c>
+      <c r="G111" t="n">
+        <v>95</v>
+      </c>
+      <c r="H111" t="s">
+        <v>648</v>
+      </c>
+      <c r="I111" t="n">
+        <v>81345</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3446</v>
+      </c>
+      <c r="L111" t="s">
+        <v>649</v>
+      </c>
+      <c r="M111" t="s">
+        <v>650</v>
+      </c>
+      <c r="N111" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
